--- a/matches.xlsx
+++ b/matches.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP EliteBook\OneDrive\A_Miscalaneus\Escritorio\Code\git_folder\images_downloader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2463D-8D4F-4DC2-BF7F-16B4503CAFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,17 +46,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,46 +330,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="49.90625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/matches.xlsx
+++ b/matches.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,2880 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max negro</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NACIEY Safe Card Wallet para iPhone 12 iPhone 12 Pro/12 Pro max/12 Mini,【Magsafe Tarjeter】, Slim Leather Magnetic PU Wallet Design (Negro)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/NACIEY-%E3%80%90Magsafe-Tarjeter%E3%80%91-Leather-Magnetic/dp/B08PBJ6H95/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+pro+max+negro&amp;qid=1630655930&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max oro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yesun K para iPhone 11 12 Pro Max Bling Clover Ring Holder Square Silicone Phone Case para niñas y mujeres (oro rosa, iPhone 12/12 Pro 6.1'')</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06332362LY1I2E4MW9DR&amp;url=%2FiPhone-Clover-Holder-Silicone-mujeres%2Fdp%2FB08ZCDV4NS%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bpro%2Bmax%2Boro%26qid%3D1630655931%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1630655931&amp;id=2245866394218213&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max plata</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Pro MAX (256 GB) - Plata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Nuevo-Apple-iPhone-Pro-256-GB/dp/B08L5F3761/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+12+pro+max+plata&amp;qid=1630655932&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max azul</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Pro MAX (128 GB) - de en Azul pacífico</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00252902T21YS4DZ9951&amp;url=%2FNuevo-Apple-iPhone-Pro-128-GB%2Fdp%2FB08L5Q53MC%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bpro%2Bmax%2Bazul%26qid%3D1630655933%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655933&amp;id=2218042061715538&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>iphone 12 negro</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 (64 GB) - en Negro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0782060H84JO5B2CTU0&amp;url=%2FNuevo-Apple-iPhone-12-64-GB%2Fdp%2FB08L5P1PZ7%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bnegro%26qid%3D1630655938%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655938&amp;id=1056093105085823&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>iphone 12 azul</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Mini (64 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06694812BMRPE1VFB6V9&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5STJSZ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bazul%26qid%3D1630655939%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655939&amp;id=4961769118665159&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>iphone 12 verde</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 (64 GB) - de en Verde</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06698812EJNH9VM2VGF6&amp;url=%2FNuevo-Apple-iPhone-64-GB-Verde%2Fdp%2FB08L5NYV1H%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bverde%26qid%3D1630655940%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655940&amp;id=7788571500783168&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>iphone 12 blanco</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 (64 GB) - en Blanco</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06703171B6CUFL8DJTDF&amp;url=%2FNuevo-Apple-iPhone-12-64-GB%2Fdp%2FB08L5Q2H5R%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bblanco%26qid%3D1630655943%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655943&amp;id=3972001328446732&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>iphone 12 mini negro</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Mini (64 GB) - en Negro</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A066972536X5GAVKZSE1H&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5RTNY1%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bnegro%26qid%3D1630655944%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655944&amp;id=1504522342888985&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>iphone 12 mini azul</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Mini (64 GB) - Azul</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06694812BMRPE1VFB6V9&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5STJSZ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bazul%26qid%3D1630655945%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655945&amp;id=2146196465291677&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>iphone 12 mini verde</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Mini (64 GB) - de en Verde</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A066932525Q4SWGEBUB93&amp;url=%2FNuevo-Apple-iPhone-64-GB-Verde%2Fdp%2FB08L5PYFCP%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bverde%26qid%3D1630655946%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655946&amp;id=3266931209597641&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>iphone 12 mini blanco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nuevo Apple iPhone 12 Mini (64 GB) - en Blanco</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0669793V6H8WQO56MTQ&amp;url=%2FNuevo-Apple-iPhone-Mini-64-GB%2Fdp%2FB08L5QR2JN%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B12%2Bmini%2Bblanco%26qid%3D1630655948%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655948&amp;id=2129256980948385&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>iphone xr negro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cable Cargador iPhone, [3Pack 2M] Cable Lightning Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE - Negro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05661303UV203EL1RTQX&amp;url=%2FCargador-ZKAPOR-Lightning-Trenzado-Compatible%2Fdp%2FB082WB4Q4S%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bxr%2Bnegro%26qid%3D1630655949%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1%26smid%3DA2IUNAG2IYHKZG&amp;qualifier=1630655949&amp;id=3299762729018556&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>iphone xr rojo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abafia Auriculares Bluetooth, Auricular Deportivo Inalámbricos Auriculares Bluetooth V5.0 con Magnética Diseño In-Ear para iPhone XR/XS/Honor P30 / P30 Pro/Galaxy S9 / S8 / Redmi (Rojo)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0292882IP6U06IY3M66&amp;url=%2FAbafia-Auriculares-Bluetooth-Auricular-Inal%25C3%25A1mbricos%2Fdp%2FB07SLHNYK1%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bxr%2Brojo%26qid%3D1630655953%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655953&amp;id=6437304620303564&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>iphone se blanco</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Apple iPhone SE (64 GB) - en Blanco</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06703732VZPI0Q5K2EZH&amp;url=%2FApple-iPhone-SE-64-GB-Blanco%2Fdp%2FB08L6YVN4D%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bse%2Bblanco%26qid%3D1630655955%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630655955&amp;id=2447945778548389&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max gris</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro MAX (512 GB) - Gris Espacial</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-Pro-Max-512-GB/dp/B07XS3ZLMF/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+11+pro+max+gris&amp;qid=1630655995&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max verde</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 Pro Max 64GB - Verde Noche - Desbloqueado (Reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-Verde-Noche-Reacondicionado/dp/B082DKQQX8/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+11+pro+max+verde&amp;qid=1630655997&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max plata</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RAVIAD Cable iPhone Cable Lightning [2Pack 3M] Cargador iPhone Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE 2020 - Plata</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06340823OM716533A7QY&amp;url=%2FRAVIAD-Lightning-Cargador-Trenzado-Compatible%2Fdp%2FB08L51XJ7F%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B11%2Bpro%2Bmax%2Bplata%26qid%3D1630655998%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1630655998&amp;id=5097149513457050&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>iphone 11 pro plata</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RAVIAD Cable iPhone Cable Lightning [2Pack 3M] Cargador iPhone Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE 2020 - Plata</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06340823OM716533A7QY&amp;url=%2FRAVIAD-Lightning-Cargador-Trenzado-Compatible%2Fdp%2FB08L51XJ7F%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B11%2Bpro%2Bplata%26qid%3D1630656002%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656002&amp;id=4304224949784499&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>iphone 11 negro</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 (64 GB) - en Negro</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00254461Z1CQ7ILN40JH&amp;url=%2FApple-iPhone-11-64-GB-Negro%2Fdp%2FB08L6XCTRZ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B11%2Bnegro%26qid%3D1630656003%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656003&amp;id=6124992446842802&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>iphone 11 verde</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Apple iPhone 11 (128 GB) - de en Verde</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-11-128-GB-en-Verde/dp/B08L6ZNNL4/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+11+verde&amp;qid=1630656005&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>iphone xs max gris</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cable Cargador iPhone, RAVIAD [MFi Certificado] 1.2M Cable Lightning Carga Rápida Nylon Trenzado Compatible con iPhone 11 XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE - Gris</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A01823442Y5S1JMHMHY0H&amp;url=%2FCargador-Certificado-Lightning-Trenzado-Compatible%2Fdp%2FB07ZH3DGGN%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bxs%2Bmax%2Bgris%26qid%3D1630656009%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1%26smid%3DA2IUNAG2IYHKZG&amp;qualifier=1630656009&amp;id=6836188724829906&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>iphone xs max dorado</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Cargador inalámbrico para coche, +QC3, cargador de carga Utrarapida, apto para iPhone XR/XS/XS/Max/X/8/8 Plus, 10 W para Galaxy Note 9/S9/S8/Note para Huawei Mate 20 Pro (dorado)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A027939514G64L9NQLBJE&amp;url=%2FCargador-inal%25C3%25A1mbrico-cargador-Utrarapida-iPhone%2Fdp%2FB08SJ1VWHC%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bxs%2Bmax%2Bdorado%26qid%3D1630656011%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656011&amp;id=2139561262639649&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>iphone xs gris</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Apple iPhone XS 64 GB Gris Espacial (Reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-XS-Grey-Reacondicionado/dp/B07N9HM3Z4/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+xs+gris&amp;qid=1630656012&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>iphone xs plata</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RAVIAD Cable iPhone Cable Lightning [2Pack 3M] Cargador iPhone Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE 2020 - Plata</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06340823OM716533A7QY&amp;url=%2FRAVIAD-Lightning-Cargador-Trenzado-Compatible%2Fdp%2FB08L51XJ7F%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bxs%2Bplata%26qid%3D1630656013%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656013&amp;id=6612144159642951&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>iphone x gris</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HAISSKY Brazalete Deportivo para Correr con Bolsa de Auriculares, Brazalete Móvil Deportivo Ajustable para iPhone 12/12Pro/11/11 Pro/XR/XS/X/8 Plus/7 Plus/8/7/6s/6, Galaxy S10/S9/S9+ hasta 6,5" (Gris)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A01773821XVNPJMBSLLHN&amp;url=%2FBrazalete-Deportivo-Correr-Airpods-Ajustable%2Fdp%2FB087LXHBKX%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2Bx%2Bgris%26qid%3D1630656015%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656015&amp;id=4878922944525751&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>iphone 8 plus gris</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Cable Cargador iPhone, RAVIAD [MFi Certificado] 1.2M Cable Lightning Carga Rápida Nylon Trenzado Compatible con iPhone 11 XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE - Gris</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A01823442Y5S1JMHMHY0H&amp;url=%2FCargador-Certificado-Lightning-Trenzado-Compatible%2Fdp%2FB07ZH3DGGN%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B8%2Bplus%2Bgris%26qid%3D1630656018%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1%26smid%3DA2IUNAG2IYHKZG&amp;qualifier=1630656018&amp;id=6640737871749439&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>iphone 8 plus plata</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RAVIAD Cable iPhone Cable Lightning [2Pack 3M] Cargador iPhone Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE 2020 - Plata</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06340823OM716533A7QY&amp;url=%2FRAVIAD-Lightning-Cargador-Trenzado-Compatible%2Fdp%2FB08L51XJ7F%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B8%2Bplus%2Bplata%26qid%3D1630656019%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656019&amp;id=8916200428021855&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>iphone 8 gris</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Apple iPhone 8 64GB Gris Espacial (Reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-Espacial-Reacondicionado-Certificado/dp/B0798H46CM/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+8+gris&amp;qid=1630656024&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>iphone 7 gris</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CPO Apple iPhone 8 64GB Gris Espacial REACONDICIONADO CPO MÓVIL 4G 4.7'' Retina HD/6CORE/64GB/2GB RAM/12MP/7MP, único</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/iPhone-Espacial-REACONDICIONADO-CPO-Retina/dp/B07MZ75N7W/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+7+gris&amp;qid=1630656027&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>iphone 7 plata</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Apple iPhone 7 32GB Plata (Reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-iPhone-Smartphone-Reacondicionado-Certificado/dp/B01NCZSVPL/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+7+plata&amp;qid=1630656028&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>iphone 6s plus plata</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RAVIAD Cable iPhone Cable Lightning [2Pack 3M] Cargador iPhone Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE 2020 - Plata</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/RAVIAD-Lightning-Cargador-Trenzado-Compatible/dp/B08L51XJ7F/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=iphone+6s+plus+plata&amp;qid=1630656038&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>iphone 6s plata</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RAVIAD Cable iPhone Cable Lightning [2Pack 3M] Cargador iPhone Carga Rápida Trenzado de Nylon Compatible con iPhone 11 Pro XS MAX XR X 8 Plus 7 Plus 6S 6 Plus 5 5S 5C SE 2020 - Plata</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A06340823OM716533A7QY&amp;url=%2FRAVIAD-Lightning-Cargador-Trenzado-Compatible%2Fdp%2FB08L51XJ7F%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Diphone%2B6s%2Bplata%26qid%3D1630656042%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656042&amp;id=5456103371156358&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>samsung galaxy m21 negro</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>swark Super AMOLED Pantalla Compatible con Samsung Galaxy M21 SM-M215F, SM-M215F/DS, SM-M215F/DSN (Negro con Marco) Pantalla táctil LCD Digitalizador Cristal Assembly + Herramientas</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A0706740ZMV7MX9QFU8S&amp;url=%2FPantalla-Compatible-SM-M215F-Digitalizador-Herramientas%2Fdp%2FB08HGMPJBG%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Bm21%2Bnegro%26qid%3D1630656048%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1630656048&amp;id=6158662895646107&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>samsung galaxy m21 azul</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SAMSUNG Galaxy M21 - Smartphone Dual SIM de 6.4" sAMOLED FHD+,Ttriple Cámara 48 MP, 4 GB RAM, 64 GB ROM Ampliables, Batería 6000 mAh, Android, Versión Española, Color Azul</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/SAMSUNG-Galaxy-M21-Smartphone-Ampliables/dp/B0883JN25J/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m21+azul&amp;qid=1630656049&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>samsung galaxy m32 negro</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy M32 con Pantalla Infinity-U FHD sAMOLED de 6,4 Pulgadas, 6 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 5000 mAh y 25W Carga rápida Negro (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-U-Pulgadas-Ampliable/dp/B097CB1YVL/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m32+negro&amp;qid=1630656054&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>samsung galaxy m32 azul</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy M32 con Pantalla Infinity-U FHD sAMOLED de 6,4 Pulgadas, 6 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 5000 mAh y 25W Carga rápida Azul (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A01887092W6DSUEDTEEFI&amp;url=%2FSmartphone-Pantalla-Infinity-U-Pulgadas-Ampliable%2Fdp%2FB097CQ4YG4%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Bm32%2Bazul%26qid%3D1630656056%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656056&amp;id=6015066198782999&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 5g gris</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A22 5G – Smartphone libre con 6.6 Pulgadas 128GB y Sistema Operativo Android Gris Versión ES</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Galaxy-A22-Smartphone-libre-Pulgadas-Operativo/dp/B095KLCBW6/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a22+5g+gris&amp;qid=1630656057&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 5g blanco</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A22 5G – Smartphone libre con 6.6 Pulgadas 128GB y Sistema Operativo Android Blanco Versión ES</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Galaxy-A22-Smartphone-libre-Pulgadas-Operativo/dp/B095KS2N8C/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a22+5g+blanco&amp;qid=1630656058&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 5g violeta</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A22 5G – Smartphone libre con 6.6 Pulgadas 128GB y Sistema Operativo Android Violeta Versión ES</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A07244643BZ3MJDVK8KJL&amp;url=%2FSamsung-Galaxy-A22-Smartphone-libre-Pulgadas-Operativo%2Fdp%2FB095L2XFD3%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba22%2B5g%2Bvioleta%26qid%3D1630656059%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656059&amp;id=6193272915369896&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 negro</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A22 - Smartphone libre con 6.6 Pulgadas y Sistema Operativo Android Negro Versión ES</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A07332368G6GIKVASHMQ&amp;url=%2FSamsung-Galaxy-A22-Smartphone-libre-Operativo%2Fdp%2FB095KQVDR2%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba22%2Bnegro%26qid%3D1630656060%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656060&amp;id=1954916680279699&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 violeta</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A22 5G – Smartphone libre con 6.6 Pulgadas 128GB y Sistema Operativo Android Violeta Versión ES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A07244643BZ3MJDVK8KJL&amp;url=%2FSamsung-Galaxy-A22-Smartphone-libre-Pulgadas-Operativo%2Fdp%2FB095L2XFD3%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba22%2Bvioleta%26qid%3D1630656064%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656064&amp;id=1713964892308504&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>samsung galaxy m12 negro</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy M12 con Pantalla Infinity-V TFT LCD de 6,5 Pulgadas, 4 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 5000 mAh y Carga rápida Negro (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05352881U4D45OZ6VF48&amp;url=%2FSmartphone-Pantalla-Infinity-V-Pulgadas-Ampliable%2Fdp%2FB091D7D9JD%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Bm12%2Bnegro%26qid%3D1630656070%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656070&amp;id=1613867540356693&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>samsung galaxy m12 azul</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy M12 con Pantalla Infinity-V TFT LCD de 6,5 Pulgadas, 4 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 5000 mAh y Carga rápida Azul (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-Pulgadas-Ampliable/dp/B091D36B36/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m12+azul&amp;qid=1630656070&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>samsung galaxy m12 verde</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy M12 con Pantalla Infinity-V TFT LCD de 6,5 Pulgadas, 4 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 5000 mAh y Carga rápida Verde (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-Pulgadas-Ampliable/dp/B091D5TK3X/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+m12+verde&amp;qid=1630656071&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>samsung galaxy a72 violeta</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy A72 con Pantalla Infinity-O FHD+ de 6,7 Pulgadas, 6 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 5000 mAh y Carga Superrápida Violeta (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WX8NCKS/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a72+violeta&amp;qid=1630656089&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 blanco</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy A52 con Pantalla Infinity-O FHD+ de 6,5 Pulgadas, 6 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 4500 mAh y Carga Superrápida Blanco (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWHJFLR/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a52+blanco&amp;qid=1630656095&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 violeta</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy A52 con Pantalla Infinity-O FHD+ de 6,5 Pulgadas, 6 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 4500 mAh y Carga Superrápida Violeta (ES Versión)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWM55SX/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a52+violeta&amp;qid=1630656096&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 azul</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy A52 con Pantalla Infinity-O FHD+ de 6,5 Pulgadas, 6 GB de RAM y 128 GB de Memoria Interna Ampliable, Batería de 4500 mAh y Carga Superrápida Azul (Version ES)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-Ampliable-Superr%C3%A1pida/dp/B08WWQ9XJX/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a52+azul&amp;qid=1630656097&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 negro</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 5G | Smartphone con Pantalla 6.5" Infinity-V HD+ | 4GB RAM y 128GB de Memoria Interna ampliables | Batería 5.000 mAh y Carga rápida | Color Negro [Versión española]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-ampliables-espa%C3%B1ola/dp/B08TB23P5B/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a32+negro&amp;qid=1630656099&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 blanco</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 5G | Smartphone con Pantalla 6.5" Infinity-V HD+ | 4GB RAM y 128GB de Memoria Interna ampliables | Batería 5.000 mAh y Carga rápida | Color Blanco [Versión española]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05484761SUGCFZDCSLFS&amp;url=%2FSmartphone-Pantalla-Infinity-V-ampliables-espa%25C3%25B1ola%2Fdp%2FB08T9XWRDQ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba32%2Bblanco%26qid%3D1630656100%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656100&amp;id=3931854037734645&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 azul</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 Color Azul | Smartphone 6.4" FHD+ s-AMOLED con Android 11 | 4 + 128GB de Memoria | Quad-cámara 64MP y Frontal de 20MP | 5.000 mAh y Carga rápida 15W | [Versión española]</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Smartphone-s-AMOLED-Quad-c%C3%A1mara-espa%C3%B1ola/dp/B08WWMJNXR/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a32+azul&amp;qid=1630656101&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 violeta</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 5G | Smartphone con Pantalla 6.5" Infinity-V HD+ | 4GB RAM y 128GB de Memoria Interna ampliables | Batería 5.000 mAh y Carga rápida | Color Violeta [Versión española]</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05486881O4OW57BUGQB4&amp;url=%2FSmartphone-Pantalla-Infinity-V-ampliables-espa%25C3%25B1ola%2Fdp%2FB08T9X8QK6%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba32%2Bvioleta%26qid%3D1630656102%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656102&amp;id=2947618493776355&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21+ 5g plata</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy S21+ 5G de 128 GB con Sistema Operativo Android Color Plata</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXQK357/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s21+5g+plata&amp;qid=1630656127&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21+ 5g violeta</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy S21+ 5G de 128 GB con Sistema Operativo Android Color Violeta</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXLK7QN/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s21+5g+violeta&amp;qid=1630656128&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 5g gris</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy S21 5G de 128 GB con Sistema Operativo Android Color Gris</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXG6Y6F/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s21+5g+gris&amp;qid=1630656139&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 5g violeta</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Samsung Smartphone Galaxy S21+ 5G de 128 GB con Sistema Operativo Android Color Violeta</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Samsung-Smartphone-Sistema-Operativo-Android/dp/B08QXLK7QN/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+s21+5g+violeta&amp;qid=1630656141&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 5g negro</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 5G | Smartphone con Pantalla 6.5" Infinity-V HD+ | 4GB RAM y 128GB de Memoria Interna ampliables | Batería 5.000 mAh y Carga rápida | Color Negro [Versión española]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-ampliables-espa%C3%B1ola/dp/B08TB23P5B/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a32+5g+negro&amp;qid=1630656142&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 5g blanco</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 5G | Smartphone con Pantalla 6.5" Infinity-V HD+ | 4GB RAM y 128GB de Memoria Interna ampliables | Batería 5.000 mAh y Carga rápida | Color Blanco [Versión española]</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A05484761SUGCFZDCSLFS&amp;url=%2FSmartphone-Pantalla-Infinity-V-ampliables-espa%25C3%25B1ola%2Fdp%2FB08T9XWRDQ%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba32%2B5g%2Bblanco%26qid%3D1630656143%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630656143&amp;id=6714147608695206&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 5g violeta</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A32 5G | Smartphone con Pantalla 6.5" Infinity-V HD+ | 4GB RAM y 128GB de Memoria Interna ampliables | Batería 5.000 mAh y Carga rápida | Color Violeta [Versión española]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Pantalla-Infinity-V-ampliables-espa%C3%B1ola/dp/B08T9X8QK6/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a32+5g+violeta&amp;qid=1630656145&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 negro</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A12 | Smartphone Libre 4G Ram y 64GB Capacidad Interna ampliables | Cámara Principal 48MP | 5.000 mAh de batería y Carga rápida | Color Negro [Versión española]</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B08Q8HBN9S/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+negro&amp;qid=1630656153&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 blanco</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A12 | Smartphone Libre 3G Ram y 32GB Capacidad Interna ampliables | Cámara Principal 48MP | 5.000 mAh de batería y Carga rápida | Color Blanco [Versión española]</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B098PDB23X/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+blanco&amp;qid=1630656154&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 azul</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy A12 | Smartphone Libre 4G Ram y 128GB Capacidad Interna ampliables | Cámara Principal 48MP | 5.000 mAh de batería y Carga rápida | Color Azul [Versión española]</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Smartphone-Capacidad-ampliables-Principal-espa%C3%B1ola/dp/B08Q8JXS17/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a12+azul&amp;qid=1630656155&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>samsung galaxy a02 negro</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Double Sure LCD táctil digitalizador de cristal completo Asamblea reemplazo para Samsung Galaxy A02 negro SM-A022F SM-A022M</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A00478582UQ57GD1N77JW&amp;url=%2FDouble-Sure-digitalizador-reemplazo-SM-A022F%2Fdp%2FB098T52SPS%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dsamsung%2Bgalaxy%2Ba02%2Bnegro%26qid%3D1630656163%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1630656163&amp;id=8640311597311377&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>samsung galaxy a02s blanco</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy-A02s | Smartphone con Pantalla de 6.5" Infinity-V HD+ | 3GB RAM y 32GB Memoria Interna ampliables | 5.000 mAh batería y Carga rápida | Color Blanco [Versión española]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Galaxy-A02s-Smartphone-Pantalla-Infinity-V-ampliables/dp/B08T9VNRRF/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=samsung+galaxy+a02s+blanco&amp;qid=1630656167&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>################################################</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>